--- a/PFOA inhalation Rat/Data/PFOA_male_blood_ORAL_kim_2016.xlsx
+++ b/PFOA inhalation Rat/Data/PFOA_male_blood_ORAL_kim_2016.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpjio\Documents\GitHub\PFAS_PBK_models\PFOA inhalation Rat\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32A4032-AD6B-49F8-82D6-075880EFA9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F620B8-3558-4EAC-A0FB-75F28ABF64E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,6 +63,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -100,7 +103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -109,6 +112,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -435,9 +445,10 @@
     <col min="3" max="3" width="33.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.77734375" customWidth="1"/>
     <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -453,8 +464,10 @@
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -462,7 +475,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="2">
-        <v>0.54400000000000004</v>
+        <v>5.44</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -470,8 +483,10 @@
       <c r="E2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G2" s="4"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -479,7 +494,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="2">
-        <v>0.93600000000000005</v>
+        <v>9.36</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -487,8 +502,10 @@
       <c r="E3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G3" s="4"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -496,7 +513,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="2">
-        <v>0.75600000000000001</v>
+        <v>7.56</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -504,8 +521,10 @@
       <c r="E4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G4" s="4"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -513,7 +532,7 @@
         <v>48</v>
       </c>
       <c r="C5" s="2">
-        <v>0.439</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -521,8 +540,10 @@
       <c r="E5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G5" s="4"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -530,7 +551,7 @@
         <v>96</v>
       </c>
       <c r="C6" s="2">
-        <v>0.191</v>
+        <v>1.91</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -538,8 +559,10 @@
       <c r="E6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G6" s="4"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -555,8 +578,10 @@
       <c r="E7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G7" s="4"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -572,8 +597,10 @@
       <c r="E8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G8" s="4"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -589,8 +616,10 @@
       <c r="E9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G9" s="4"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -606,26 +635,32 @@
       <c r="E10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G10" s="4"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.3">
@@ -633,5 +668,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PFOA inhalation Rat/Data/PFOA_male_blood_ORAL_kim_2016.xlsx
+++ b/PFOA inhalation Rat/Data/PFOA_male_blood_ORAL_kim_2016.xlsx
@@ -1,35 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpjio\Documents\GitHub\PFAS_PBK_models\PFOA inhalation Rat\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\PFAS_PBK_models\PFOA inhalation Rat\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F620B8-3558-4EAC-A0FB-75F28ABF64E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665D30B8-C395-4272-91E4-E535EEFEFEC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2900" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -50,13 +39,13 @@
     <t>Tissue</t>
   </si>
   <si>
-    <t>Blood</t>
-  </si>
-  <si>
     <t>Time_hours</t>
   </si>
   <si>
     <t>Concentration_microg_per_g_organ</t>
+  </si>
+  <si>
+    <t>Plasma</t>
   </si>
 </sst>
 </file>
@@ -64,7 +53,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -118,10 +107,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -137,9 +126,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -177,7 +166,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -283,7 +272,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -425,7 +414,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -436,27 +425,27 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
-    <col min="3" max="3" width="33.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" customWidth="1"/>
+    <col min="3" max="3" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" customWidth="1"/>
+    <col min="7" max="7" width="12.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -467,9 +456,9 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2">
         <v>6</v>
@@ -486,9 +475,9 @@
       <c r="G2" s="4"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2">
         <v>12</v>
@@ -505,9 +494,9 @@
       <c r="G3" s="4"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
         <v>24</v>
@@ -524,9 +513,9 @@
       <c r="G4" s="4"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2">
         <v>48</v>
@@ -543,9 +532,9 @@
       <c r="G5" s="4"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2">
         <v>96</v>
@@ -562,9 +551,9 @@
       <c r="G6" s="4"/>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>144</v>
@@ -581,9 +570,9 @@
       <c r="G7" s="4"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
         <v>192</v>
@@ -600,9 +589,9 @@
       <c r="G8" s="4"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2">
         <v>240</v>
@@ -619,9 +608,9 @@
       <c r="G9" s="4"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2">
         <v>288</v>
@@ -638,32 +627,32 @@
       <c r="G10" s="4"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C17" s="2"/>
     </row>
   </sheetData>
